--- a/Wulinpy/GenerateXSLXtoCSV/xlsx_input/本地化数据_随机战斗.xlsx
+++ b/Wulinpy/GenerateXSLXtoCSV/xlsx_input/本地化数据_随机战斗.xlsx
@@ -342,7 +342,7 @@
     <t>If you want to save some face, don't set foot in Confucius Temple's territory again!</t>
   </si>
   <si>
-    <t>你這宵小，竟還敢來，當這裡是自己家嗎！真是不誅不足以平眾怒！</t>
+    <t>你這宵小，竟還敢來，當這裏是自己家嗎！真是不誅不足以平眾怒！</t>
   </si>
   <si>
     <t>You little thief, dare to come here, do you think this is your home! It's not enough to quell the public's anger without punishment!</t>
@@ -423,7 +423,7 @@
     <t>敢和我們九江水寨叫板的，都沒有好下場！你可想清楚了！</t>
   </si>
   <si>
-    <t>Those who dare to challenge Jiujiang Water Camp, none of them ended well! Think it over!</t>
+    <t>Those who dare to challenge Jiujiang Fotress, none of them ended well! Think it over!</t>
   </si>
   <si>
     <t>行吧行吧，墨跡的我頭都大了！放過你了！</t>
@@ -468,7 +468,7 @@
     <t>Looking at your pocket cleaner than your face, but actually rich as oil! Interesting!</t>
   </si>
   <si>
-    <t>這些寶貝留給你簡直浪費！廢物就應該老老實實待在泥裡，裝什麼大尾巴狼！</t>
+    <t>這些寶貝留給你簡直浪費！廢物就應該老老實實待在泥裏，裝什麼大尾巴狼！</t>
   </si>
   <si>
     <t>It's a waste to leave these treasures to you! Trash should stay in the mud, stop pretending to be a big shot!</t>
@@ -477,7 +477,7 @@
     <t>東西我們拿走了，至於你的人，九江水寨不收廢物！滾得遠遠的吧！</t>
   </si>
   <si>
-    <t>We've taken the stuff, as for your people, Jiujiang Water Camp doesn't take in trash! Get lost!</t>
+    <t>We've taken the stuff, as for your people, Jiujiang Fotress doesn't take in trash! Get lost!</t>
   </si>
   <si>
     <t>滾回陰溝旮旯安分待著吧！沒本事的愣頭青就不要出來惹人笑話了！</t>
@@ -516,7 +516,7 @@
     <t>Money isn't everything, but without money, you can't do anything. We'll reluctantly accept this time, but don't make it a habit!</t>
   </si>
   <si>
-    <t>你這無聊的把戲，是和哪裡不入流的術士學的？</t>
+    <t>你這無聊的把戲，是和哪裏不入流的術士學的？</t>
   </si>
   <si>
     <t>Where did you learn this boring trick from, some second-rate sorcerer?</t>
@@ -906,7 +906,7 @@
     <t>Hmph! It's a waste for you useless people to have these treasures, hand them over!</t>
   </si>
   <si>
-    <t>沒想到這小子包裡這麼多好東西，東西留下，人滾吧！老大教育我們不屠戮。</t>
+    <t>沒想到這小子包裏這麼多好東西，東西留下，人滾吧！老大教育我們不屠戮。</t>
   </si>
   <si>
     <t>Didn't expect this kid to have so many good things in his bag, leave the things and get lost! The boss taught us not to slaughter.</t>
